--- a/Excel/ExcelData.xlsx
+++ b/Excel/ExcelData.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Workspace\SeleniumAutomationFramework\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847D3B7B-C305-4A4C-B120-6FFECCF18C04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E59583E5-057B-4680-9EF5-80DDF8F0DDB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19460" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,10 +29,13 @@
     <t>password</t>
   </si>
   <si>
-    <t>Ravi</t>
+    <t>pass@123</t>
   </si>
   <si>
-    <t>pass@123</t>
+    <t>{
+    "name": "morpheus",
+    "job": "leader"
+}</t>
   </si>
 </sst>
 </file>
@@ -81,9 +80,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -367,7 +369,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E2:E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -383,12 +387,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
+    <row r="2" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
